--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>DATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LOKASI</t>
   </si>
   <si>
-    <t>STOCKLIST</t>
+    <t>STOCKIST</t>
   </si>
 </sst>
 </file>
@@ -358,7 +355,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -373,14 +370,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>43464</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -24,7 +24,7 @@
     <t>LOKASI</t>
   </si>
   <si>
-    <t>STOCKIST</t>
+    <t>STOCKLIST</t>
   </si>
 </sst>
 </file>

--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <t>LOKASI</t>
   </si>
   <si>
-    <t>STOCKIST</t>
+    <t>STOCKLIST</t>
   </si>
 </sst>
 </file>
@@ -129,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -355,7 +350,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
   </bookViews>
@@ -19,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>DATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LOKASI</t>
   </si>
@@ -132,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -358,7 +350,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -373,14 +365,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>43464</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
   </bookViews>
@@ -14,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>LOKASI</t>
   </si>
   <si>
     <t>STOCKLIST</t>
+  </si>
+  <si>
+    <t>CHANNEL</t>
   </si>
 </sst>
 </file>
@@ -336,7 +344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -350,7 +358,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -365,7 +373,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>

--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>LOKASI</t>
   </si>
@@ -28,13 +29,37 @@
   </si>
   <si>
     <t>CHANNEL</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>GTC</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <t>Jalan Baru</t>
+  </si>
+  <si>
+    <t>Jalan Indah</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Untuk Import Datanya di Sheet2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -44,6 +69,31 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,12 +116,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,19 +428,115 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -376,9 +545,45 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/PlanDcImport.xlsx
+++ b/public/assets/PlanDcImport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>LOKASI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>STOCKLIST</t>
   </si>
@@ -53,6 +50,12 @@
   </si>
   <si>
     <t>Untuk Import Datanya di Sheet2</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -122,28 +125,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,10 +431,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -440,75 +443,79 @@
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>43811</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>43383</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -523,10 +530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,55 +542,56 @@
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
